--- a/excercises/excercises 2/ex030.choke.xlsx
+++ b/excercises/excercises 2/ex030.choke.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EEB8A0-C07B-4AED-B5F5-B02AECCD05A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35C49E0-D1AB-4361-994C-E0BB114A02F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="25580" windowHeight="14380" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choke" sheetId="118" r:id="rId1"/>
@@ -20,22 +20,25 @@
   </externalReferences>
   <definedNames>
     <definedName name="Bob_" localSheetId="0">Choke!$C$14</definedName>
-    <definedName name="d_choke">Choke!$C$21</definedName>
-    <definedName name="d_pipe">Choke!$C$20</definedName>
-    <definedName name="fw_" localSheetId="0">Choke!$C$17</definedName>
+    <definedName name="d_choke">Choke!$C$22</definedName>
+    <definedName name="d_pipe">Choke!$C$21</definedName>
+    <definedName name="fw_" localSheetId="0">Choke!$C$18</definedName>
     <definedName name="gamma_gas_" localSheetId="0">Choke!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="0">Choke!$C$7</definedName>
     <definedName name="gamma_wat_" localSheetId="0">Choke!$C$8</definedName>
+    <definedName name="gamma_wat_kf_">Choke!$C$16</definedName>
     <definedName name="muob_" localSheetId="0">Choke!$C$15</definedName>
     <definedName name="Pb_" localSheetId="0">Choke!$C$12</definedName>
-    <definedName name="Pbuf_">Choke!$C$28</definedName>
-    <definedName name="Plin_">Choke!$C$32</definedName>
-    <definedName name="PVTstr_">Choke!$C$23</definedName>
-    <definedName name="Qliq_">Choke!$C$27</definedName>
+    <definedName name="Pbuf_">Choke!$C$31</definedName>
+    <definedName name="Plin_">Choke!$C$35</definedName>
+    <definedName name="PVT_str_gas_">Choke!$C$25</definedName>
+    <definedName name="PVT_str_wat_">Choke!$C$26</definedName>
+    <definedName name="PVTstr_">Choke!$C$24</definedName>
+    <definedName name="Qliq_">Choke!$C$30</definedName>
     <definedName name="Rp_" localSheetId="0">Choke!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="0">Choke!$C$10</definedName>
-    <definedName name="T_choke">Choke!$C$18</definedName>
-    <definedName name="T_upchoke">Choke!$C$18</definedName>
+    <definedName name="T_choke">Choke!$C$19</definedName>
+    <definedName name="T_upchoke">Choke!$C$19</definedName>
     <definedName name="Tres_" localSheetId="0">Choke!$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Физико - химические свойства флюида   PVT</t>
   </si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>Параметры потока флюида</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Упражнение </t>
   </si>
   <si>
     <t xml:space="preserve">графики для расчета потока через ограничение - штуцер </t>
@@ -390,6 +390,21 @@
       <t>3</t>
     </r>
   </si>
+  <si>
+    <t>PVT строка газ</t>
+  </si>
+  <si>
+    <t>PVT строка вода</t>
+  </si>
+  <si>
+    <t>пример расчета характеристик штуцера</t>
+  </si>
+  <si>
+    <t>Рвх</t>
+  </si>
+  <si>
+    <t>qmax</t>
+  </si>
 </sst>
 </file>
 
@@ -644,7 +659,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -726,12 +741,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -828,18 +850,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$50</c:f>
+              <c:f>Choke!$B$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$49:$N$49</c:f>
+              <c:f>Choke!$C$52:$N$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -884,18 +906,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$50:$N$50</c:f>
+              <c:f>Choke!$C$53:$N$53</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.009857177734375</c:v>
+                  <c:v>2.00494384765625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3203125</c:v>
+                  <c:v>2.55859375</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.625</c:v>
@@ -939,7 +961,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$51</c:f>
+              <c:f>Choke!$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -950,7 +972,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$49:$O$49</c:f>
+              <c:f>Choke!$C$52:$O$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -995,9 +1017,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$51:$O$51</c:f>
+              <c:f>Choke!$C$54:$O$54</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1050,7 +1072,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$52</c:f>
+              <c:f>Choke!$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1061,7 +1083,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$49:$O$49</c:f>
+              <c:f>Choke!$C$52:$O$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1106,9 +1128,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$O$52</c:f>
+              <c:f>Choke!$C$55:$O$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
@@ -1161,7 +1183,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$53</c:f>
+              <c:f>Choke!$B$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1196,7 +1218,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$49:$O$49</c:f>
+              <c:f>Choke!$C$52:$O$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1241,9 +1263,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$53:$O$53</c:f>
+              <c:f>Choke!$C$56:$O$56</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
@@ -1296,7 +1318,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$54</c:f>
+              <c:f>Choke!$B$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1307,7 +1329,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$49:$N$49</c:f>
+              <c:f>Choke!$C$52:$N$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1352,9 +1374,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$54:$N$54</c:f>
+              <c:f>Choke!$C$57:$N$57</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
@@ -1407,7 +1429,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$55</c:f>
+              <c:f>Choke!$B$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1418,7 +1440,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$49:$N$49</c:f>
+              <c:f>Choke!$C$52:$N$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1463,9 +1485,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$55:$N$55</c:f>
+              <c:f>Choke!$C$58:$N$58</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
@@ -1694,7 +1716,1320 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374139136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Давление</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> на входе от дебита пр разных давлениях на выходе</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Choke!$B$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7605573374214547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.521114674842909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.281672012264366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.042229349685819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.802786687107272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.563344024528725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.323901361950178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.084458699371638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.845016036793098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.605573374214558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.366130711636018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.12668804905748</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.88724538647894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.6478027239004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.40836006132184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140.1689173987433</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.92947473616476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157.69003207358622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.45058941100768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Choke!$C$96:$V$96</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.920654296875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6728515625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2138671875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.41796875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEBA-48A9-8D40-3D9AFDBF02AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Choke!$B$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7605573374214547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.521114674842909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.281672012264366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.042229349685819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.802786687107272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.563344024528725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.323901361950178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.084458699371638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.845016036793098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.605573374214558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.366130711636018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.12668804905748</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.88724538647894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.6478027239004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.40836006132184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140.1689173987433</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.92947473616476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157.69003207358622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.45058941100768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Choke!$C$97:$V$97</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.946670532226563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.783935546875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.501953125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.080810546875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.48388671875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.626953125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CEBA-48A9-8D40-3D9AFDBF02AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Choke!$B$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7605573374214547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.521114674842909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.281672012264366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.042229349685819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.802786687107272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.563344024528725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.323901361950178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.084458699371638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.845016036793098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.605573374214558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.366130711636018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.12668804905748</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.88724538647894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.6478027239004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.40836006132184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140.1689173987433</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.92947473616476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157.69003207358622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.45058941100768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Choke!$C$98:$V$98</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.95941162109375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.83642578125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.627685546875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.326171875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.9208984375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.3984375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.724609375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.8359375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.515625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CEBA-48A9-8D40-3D9AFDBF02AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Choke!$B$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7605573374214547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.521114674842909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.281672012264366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.042229349685819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.802786687107272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.563344024528725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.323901361950178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.084458699371638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.845016036793098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.605573374214558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.366130711636018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.12668804905748</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.88724538647894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.6478027239004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.40836006132184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140.1689173987433</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.92947473616476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157.69003207358622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.45058941100768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Choke!$C$99:$V$99</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.967098236083984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.868011474609375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.700927734375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.462890625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.1485595703125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.7548828125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.2666015625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.66845703125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.9482421875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0693359375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.921875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.3837890625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.33203125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CEBA-48A9-8D40-3D9AFDBF02AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Choke!$B$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7605573374214547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.521114674842909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.281672012264366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.042229349685819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.802786687107272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.563344024528725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.323901361950178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.084458699371638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.845016036793098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.605573374214558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.366130711636018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.12668804905748</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.88724538647894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.6478027239004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.40836006132184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140.1689173987433</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.92947473616476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157.69003207358622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.45058941100768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Choke!$C$100:$V$100</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.972190856933594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.8883056640625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.747314453125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.549560546875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.28955078125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.96728515625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.57177734375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.1103515625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.56103515625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.923828125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.162109375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.283203125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.19921875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.8515625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.03515625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CEBA-48A9-8D40-3D9AFDBF02AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Choke!$B$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7605573374214547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.521114674842909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.281672012264366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.042229349685819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.802786687107272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.563344024528725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.323901361950178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.084458699371638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.845016036793098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.605573374214558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.366130711636018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.12668804905748</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.88724538647894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.6478027239004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.40836006132184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140.1689173987433</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.92947473616476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157.69003207358622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.45058941100768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Choke!$C$101:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.975833892822266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.903068542480469</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.781036376953125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.60906982421875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.38690185546875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.111328125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.778076171875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.3892822265625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.940673828125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.41943359375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.8212890625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.15478515625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.3857421875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.4970703125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.4716796875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.275390625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.771484375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.7890625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CEBA-48A9-8D40-3D9AFDBF02AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="374139136"/>
+        <c:axId val="374139712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="374139136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Дебит, м3/сут</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374139712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="374139712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t> на входе</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>атм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1817,13 +3152,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>67233</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>560293</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>44822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1861,7 +3196,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>452047</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>103333</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2044,6 +3379,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33565</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514379</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>159683</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53CADEE6-1CF1-47A9-8273-AB273F9DBF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2653,15 +4026,301 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Worksheet_Choke">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2673,19 +4332,21 @@
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
@@ -2694,7 +4355,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2704,7 +4365,7 @@
     </row>
     <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>0.87</v>
@@ -2715,12 +4376,12 @@
         <v>870</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2731,12 +4392,12 @@
         <v>1000</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>0.8</v>
@@ -2747,48 +4408,48 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>80</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="14">
         <f>Rsb_/gamma_oil_</f>
         <v>91.954022988505741</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>80</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="14">
         <f>Rsb_/gamma_oil_</f>
         <v>91.954022988505741</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>120</v>
@@ -2806,7 +4467,7 @@
     </row>
     <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>100</v>
@@ -2824,7 +4485,7 @@
     </row>
     <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>1.2</v>
@@ -2835,7 +4496,7 @@
     </row>
     <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -2844,753 +4505,803 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="13">
+        <f>gamma_wat_kf_*1000</f>
+        <v>1200</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2">
         <v>20</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>30</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>70</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="29" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:False;</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="29" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,1)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:True;</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="29" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_kf_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,200;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:False;</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>25</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>26</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="23">
+        <f t="array" ref="C32:G33">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.73895263671875</v>
+      </c>
+      <c r="D32" s="23">
+        <v>26</v>
+      </c>
+      <c r="E32" s="23">
+        <v>25.73895263671875</v>
+      </c>
+      <c r="F32" s="23">
+        <v>30</v>
+      </c>
+      <c r="G32" s="23">
+        <v>1</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="7">
+        <f t="array" ref="K32:M33">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>0.26104736328125</v>
+      </c>
+      <c r="L32" s="7">
+        <v>30</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C33" s="23" t="str">
+        <v>Pout, atma</v>
+      </c>
+      <c r="D33" s="23" t="str">
+        <v>p_intake_atma</v>
+      </c>
+      <c r="E33" s="23" t="str">
+        <v>p_out_atma</v>
+      </c>
+      <c r="F33" s="23" t="str">
+        <v>Tchoke_C</v>
+      </c>
+      <c r="G33" s="23" t="str">
+        <v>c_calibr_fr</v>
+      </c>
+      <c r="K33" s="7" t="str">
+        <v>dP_atm</v>
+      </c>
+      <c r="L33" s="7" t="str">
+        <v>Tchoke_C</v>
+      </c>
+      <c r="M33" s="7" t="str">
+        <v>c_calibr_fr</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="21">
+        <v>5</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="23">
+        <f t="array" ref="C36:G37">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>6.396484375</v>
+      </c>
+      <c r="D36" s="23">
+        <v>6.396484375</v>
+      </c>
+      <c r="E36" s="23">
+        <v>5</v>
+      </c>
+      <c r="F36" s="23">
+        <v>30</v>
+      </c>
+      <c r="G36" s="23">
+        <v>1</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="7">
+        <f t="array" ref="K36:M37">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>1.396484375</v>
+      </c>
+      <c r="L36" s="7">
+        <v>30</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C37" s="23" t="str">
+        <v>Pin, atma</v>
+      </c>
+      <c r="D37" s="23" t="str">
+        <v>p_intake_atma</v>
+      </c>
+      <c r="E37" s="23" t="str">
+        <v>p_out_atma</v>
+      </c>
+      <c r="F37" s="23" t="str">
+        <v>Tchoke_C</v>
+      </c>
+      <c r="G37" s="23" t="str">
+        <v>c_calibr_fr</v>
+      </c>
+      <c r="K37" s="24" t="str">
+        <v>dP_atm</v>
+      </c>
+      <c r="L37" s="24" t="str">
+        <v>Tchoke_C</v>
+      </c>
+      <c r="M37" s="24" t="str">
+        <v>c_calibr_fr</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="7">
+        <f t="array" ref="C40:G41">[1]!MF_calibr_choke_fr(Qliq_,fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,PVTstr_)</f>
+        <v>0.20889911495164873</v>
+      </c>
+      <c r="D40" s="25">
+        <v>26</v>
+      </c>
+      <c r="E40" s="25">
+        <v>5</v>
+      </c>
+      <c r="F40" s="25">
+        <v>30</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.20889911495164873</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="25" t="str">
+        <v>c_calibr_fr</v>
+      </c>
+      <c r="D41" s="25" t="str">
+        <v>p_intake_atma</v>
+      </c>
+      <c r="E41" s="25" t="str">
+        <v>p_out_atma</v>
+      </c>
+      <c r="F41" s="25" t="str">
+        <v>Tchoke_C</v>
+      </c>
+      <c r="G41" s="25" t="str">
+        <v>c_calibr_fr</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="24">
+        <f t="array" ref="C44:G45">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,C40,PVTstr_)</f>
+        <v>24.999999999999996</v>
+      </c>
+      <c r="D44" s="24">
+        <v>26</v>
+      </c>
+      <c r="E44" s="24">
+        <v>5</v>
+      </c>
+      <c r="F44" s="24">
+        <v>30</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.20889911495164873</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="24" t="str">
+        <v>Qliq</v>
+      </c>
+      <c r="D45" s="24" t="str">
+        <v>p_intake_atma</v>
+      </c>
+      <c r="E45" s="24" t="str">
+        <v>p_out_atma</v>
+      </c>
+      <c r="F45" s="24" t="str">
+        <v>Tchoke_C</v>
+      </c>
+      <c r="G45" s="24" t="str">
+        <v>c_calibr_fr</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+    </row>
+    <row r="52" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="27">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2">
+        <v>20</v>
+      </c>
+      <c r="G52" s="28">
         <v>30</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2">
-        <v>70</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="29" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2">
-        <v>25</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2">
-        <v>26</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="23">
-        <f t="array" ref="C29:G30">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.73895263671875</v>
-      </c>
-      <c r="D29" s="23">
-        <v>26</v>
-      </c>
-      <c r="E29" s="23">
-        <v>25.73895263671875</v>
-      </c>
-      <c r="F29" s="23">
-        <v>30</v>
-      </c>
-      <c r="G29" s="23">
-        <v>1</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="7">
-        <f t="array" ref="K29:M30">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>0.26104736328125</v>
-      </c>
-      <c r="L29" s="7">
-        <v>30</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C30" s="23" t="str">
-        <v>Pout, atma</v>
-      </c>
-      <c r="D30" s="23" t="str">
-        <v>p_intake_atma</v>
-      </c>
-      <c r="E30" s="23" t="str">
-        <v>p_out_atma</v>
-      </c>
-      <c r="F30" s="23" t="str">
-        <v>Tchoke_C</v>
-      </c>
-      <c r="G30" s="23" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-      <c r="K30" s="7" t="str">
-        <v>dP_atm</v>
-      </c>
-      <c r="L30" s="7" t="str">
-        <v>Tchoke_C</v>
-      </c>
-      <c r="M30" s="7" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="21">
-        <v>5</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="23">
-        <f t="array" ref="C33:G34">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>6.396484375</v>
-      </c>
-      <c r="D33" s="23">
-        <v>6.396484375</v>
-      </c>
-      <c r="E33" s="23">
-        <v>5</v>
-      </c>
-      <c r="F33" s="23">
-        <v>30</v>
-      </c>
-      <c r="G33" s="23">
-        <v>1</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="7">
-        <f t="array" ref="K33:M34">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>1.396484375</v>
-      </c>
-      <c r="L33" s="7">
-        <v>30</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C34" s="23" t="str">
-        <v>Pin, atma</v>
-      </c>
-      <c r="D34" s="23" t="str">
-        <v>p_intake_atma</v>
-      </c>
-      <c r="E34" s="23" t="str">
-        <v>p_out_atma</v>
-      </c>
-      <c r="F34" s="23" t="str">
-        <v>Tchoke_C</v>
-      </c>
-      <c r="G34" s="23" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-      <c r="K34" s="24" t="str">
-        <v>dP_atm</v>
-      </c>
-      <c r="L34" s="24" t="str">
-        <v>Tchoke_C</v>
-      </c>
-      <c r="M34" s="24" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="7">
-        <f t="array" ref="C37:G38">[1]!MF_calibr_choke_fr(Qliq_,fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,PVTstr_)</f>
-        <v>0.20889911495164873</v>
-      </c>
-      <c r="D37" s="25">
-        <v>26</v>
-      </c>
-      <c r="E37" s="25">
-        <v>5</v>
-      </c>
-      <c r="F37" s="25">
-        <v>30</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0.20889911495164873</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="25" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-      <c r="D38" s="25" t="str">
-        <v>p_intake_atma</v>
-      </c>
-      <c r="E38" s="25" t="str">
-        <v>p_out_atma</v>
-      </c>
-      <c r="F38" s="25" t="str">
-        <v>Tchoke_C</v>
-      </c>
-      <c r="G38" s="25" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="24">
-        <f t="array" ref="C41:G42">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,C37,PVTstr_)</f>
-        <v>24.999999999999996</v>
-      </c>
-      <c r="D41" s="24">
-        <v>26</v>
-      </c>
-      <c r="E41" s="24">
-        <v>5</v>
-      </c>
-      <c r="F41" s="24">
-        <v>30</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0.20889911495164873</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="24" t="str">
-        <v>Qliq</v>
-      </c>
-      <c r="D42" s="24" t="str">
-        <v>p_intake_atma</v>
-      </c>
-      <c r="E42" s="24" t="str">
-        <v>p_out_atma</v>
-      </c>
-      <c r="F42" s="24" t="str">
-        <v>Tchoke_C</v>
-      </c>
-      <c r="G42" s="24" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-    </row>
-    <row r="49" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="27">
-        <v>10</v>
-      </c>
-      <c r="F49" s="2">
-        <v>20</v>
-      </c>
-      <c r="G49" s="28">
-        <v>30</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="H52" s="2">
         <v>40</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I52" s="2">
         <v>50</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J52" s="2">
         <v>100</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K52" s="2">
         <v>150</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L52" s="2">
         <v>200</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M52" s="2">
         <v>300</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N52" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>1</v>
-      </c>
-      <c r="D50" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>1.009857177734375</v>
-      </c>
-      <c r="E50" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>2.3203125</v>
-      </c>
-      <c r="F50" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>4.625</v>
-      </c>
-      <c r="G50" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>6.90625</v>
-      </c>
-      <c r="H50" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.15625</v>
-      </c>
-      <c r="I50" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.375</v>
-      </c>
-      <c r="J50" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22</v>
-      </c>
-      <c r="K50" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.9375</v>
-      </c>
-      <c r="L50" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.0625</v>
-      </c>
-      <c r="M50" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>57.125</v>
-      </c>
-      <c r="N50" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>70.25</v>
-      </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2">
-        <v>10</v>
-      </c>
-      <c r="C51" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10</v>
-      </c>
-      <c r="D51" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.001020431518555</v>
-      </c>
-      <c r="E51" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.1025390625</v>
-      </c>
-      <c r="F51" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.4150390625</v>
-      </c>
-      <c r="G51" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.947265625</v>
-      </c>
-      <c r="H51" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.728515625</v>
-      </c>
-      <c r="I51" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>12.7734375</v>
-      </c>
-      <c r="J51" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.03125</v>
-      </c>
-      <c r="K51" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.9140625</v>
-      </c>
-      <c r="L51" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.0546875</v>
-      </c>
-      <c r="M51" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>57.1875</v>
-      </c>
-      <c r="N51" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>70.234375</v>
-      </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="2">
-        <v>20</v>
-      </c>
-      <c r="C52" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20</v>
-      </c>
-      <c r="D52" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.000526905059814</v>
-      </c>
-      <c r="E52" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.05279541015625</v>
-      </c>
-      <c r="F52" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.211181640625</v>
-      </c>
-      <c r="G52" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.47607421875</v>
-      </c>
-      <c r="H52" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.849609375</v>
-      </c>
-      <c r="I52" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.3330078125</v>
-      </c>
-      <c r="J52" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.44921875</v>
-      </c>
-      <c r="K52" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.34375</v>
-      </c>
-      <c r="L52" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.0546875</v>
-      </c>
-      <c r="M52" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>57.1875</v>
-      </c>
-      <c r="N52" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>70.234375</v>
-      </c>
-      <c r="O52" s="3"/>
     </row>
     <row r="53" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
-        <v>30</v>
-      </c>
-      <c r="C53" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30</v>
-      </c>
-      <c r="D53" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.000362992286682</v>
-      </c>
-      <c r="E53" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.036163330078125</v>
-      </c>
-      <c r="F53" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.1446533203125</v>
-      </c>
-      <c r="G53" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.325927734375</v>
-      </c>
-      <c r="H53" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.57861328125</v>
-      </c>
-      <c r="I53" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.904541015625</v>
-      </c>
-      <c r="J53" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.6181640625</v>
-      </c>
-      <c r="K53" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>38.02734375</v>
-      </c>
-      <c r="L53" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>43.88671875</v>
-      </c>
-      <c r="M53" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>57.5390625</v>
-      </c>
-      <c r="N53" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>70.3125</v>
+        <v>2</v>
+      </c>
+      <c r="C53" s="25">
+        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>2</v>
+      </c>
+      <c r="D53" s="25">
+        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>2.00494384765625</v>
+      </c>
+      <c r="E53" s="25">
+        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>2.55859375</v>
+      </c>
+      <c r="F53" s="25">
+        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>4.625</v>
+      </c>
+      <c r="G53" s="25">
+        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>6.90625</v>
+      </c>
+      <c r="H53" s="25">
+        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>9.15625</v>
+      </c>
+      <c r="I53" s="25">
+        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.375</v>
+      </c>
+      <c r="J53" s="25">
+        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>22</v>
+      </c>
+      <c r="K53" s="25">
+        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.9375</v>
+      </c>
+      <c r="L53" s="25">
+        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.0625</v>
+      </c>
+      <c r="M53" s="25">
+        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>57.125</v>
+      </c>
+      <c r="N53" s="25">
+        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>70.25</v>
       </c>
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
-        <v>40</v>
-      </c>
-      <c r="C54" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40</v>
-      </c>
-      <c r="D54" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.000280141830444</v>
-      </c>
-      <c r="E54" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.027999877929688</v>
-      </c>
-      <c r="F54" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.1116943359375</v>
-      </c>
-      <c r="G54" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.25146484375</v>
-      </c>
-      <c r="H54" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.44677734375</v>
-      </c>
-      <c r="I54" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.6982421875</v>
-      </c>
-      <c r="J54" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>42.763671875</v>
-      </c>
-      <c r="K54" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>46.1328125</v>
-      </c>
-      <c r="L54" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.5859375</v>
-      </c>
-      <c r="M54" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>61.5625</v>
-      </c>
-      <c r="N54" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>73.125</v>
+        <v>10</v>
+      </c>
+      <c r="C54" s="25">
+        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10</v>
+      </c>
+      <c r="D54" s="25">
+        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.001020431518555</v>
+      </c>
+      <c r="E54" s="25">
+        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.1025390625</v>
+      </c>
+      <c r="F54" s="25">
+        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.4150390625</v>
+      </c>
+      <c r="G54" s="25">
+        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.947265625</v>
+      </c>
+      <c r="H54" s="25">
+        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.728515625</v>
+      </c>
+      <c r="I54" s="25">
+        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>12.7734375</v>
+      </c>
+      <c r="J54" s="25">
+        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>22.03125</v>
+      </c>
+      <c r="K54" s="25">
+        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.9140625</v>
+      </c>
+      <c r="L54" s="25">
+        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.0546875</v>
+      </c>
+      <c r="M54" s="25">
+        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>57.1875</v>
+      </c>
+      <c r="N54" s="25">
+        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>70.234375</v>
       </c>
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
+        <v>20</v>
+      </c>
+      <c r="C55" s="25">
+        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20</v>
+      </c>
+      <c r="D55" s="25">
+        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.000526905059814</v>
+      </c>
+      <c r="E55" s="25">
+        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.05279541015625</v>
+      </c>
+      <c r="F55" s="25">
+        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.211181640625</v>
+      </c>
+      <c r="G55" s="25">
+        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.47607421875</v>
+      </c>
+      <c r="H55" s="25">
+        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.849609375</v>
+      </c>
+      <c r="I55" s="25">
+        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>21.3330078125</v>
+      </c>
+      <c r="J55" s="25">
+        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.44921875</v>
+      </c>
+      <c r="K55" s="25">
+        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>32.34375</v>
+      </c>
+      <c r="L55" s="25">
+        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.0546875</v>
+      </c>
+      <c r="M55" s="25">
+        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>57.1875</v>
+      </c>
+      <c r="N55" s="25">
+        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>70.234375</v>
+      </c>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>30</v>
+      </c>
+      <c r="C56" s="25">
+        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30</v>
+      </c>
+      <c r="D56" s="25">
+        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.000362992286682</v>
+      </c>
+      <c r="E56" s="25">
+        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.036163330078125</v>
+      </c>
+      <c r="F56" s="25">
+        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.1446533203125</v>
+      </c>
+      <c r="G56" s="25">
+        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.325927734375</v>
+      </c>
+      <c r="H56" s="25">
+        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.57861328125</v>
+      </c>
+      <c r="I56" s="25">
+        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.904541015625</v>
+      </c>
+      <c r="J56" s="25">
+        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>33.6181640625</v>
+      </c>
+      <c r="K56" s="25">
+        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>38.02734375</v>
+      </c>
+      <c r="L56" s="25">
+        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>43.88671875</v>
+      </c>
+      <c r="M56" s="25">
+        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>57.5390625</v>
+      </c>
+      <c r="N56" s="25">
+        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>70.3125</v>
+      </c>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <v>40</v>
+      </c>
+      <c r="C57" s="25">
+        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40</v>
+      </c>
+      <c r="D57" s="25">
+        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.000280141830444</v>
+      </c>
+      <c r="E57" s="25">
+        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.027999877929688</v>
+      </c>
+      <c r="F57" s="25">
+        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.1116943359375</v>
+      </c>
+      <c r="G57" s="25">
+        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.25146484375</v>
+      </c>
+      <c r="H57" s="25">
+        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.44677734375</v>
+      </c>
+      <c r="I57" s="25">
+        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.6982421875</v>
+      </c>
+      <c r="J57" s="25">
+        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>42.763671875</v>
+      </c>
+      <c r="K57" s="25">
+        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>46.1328125</v>
+      </c>
+      <c r="L57" s="25">
+        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>50.5859375</v>
+      </c>
+      <c r="M57" s="25">
+        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>61.5625</v>
+      </c>
+      <c r="N57" s="25">
+        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>73.125</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
         <v>50</v>
       </c>
-      <c r="C55" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="C58" s="25">
+        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>50</v>
       </c>
-      <c r="D55" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="D58" s="25">
+        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>50.000230967998505</v>
       </c>
-      <c r="E55" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="E58" s="25">
+        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>50.023078918457031</v>
       </c>
-      <c r="F55" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="F58" s="25">
+        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>50.092315673828125</v>
       </c>
-      <c r="G55" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="G58" s="25">
+        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>50.20751953125</v>
       </c>
-      <c r="H55" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="H58" s="25">
+        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>50.36773681640625</v>
       </c>
-      <c r="I55" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="I58" s="25">
+        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>50.57373046875</v>
       </c>
-      <c r="J55" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="J58" s="25">
+        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>52.276611328125</v>
       </c>
-      <c r="K55" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="K58" s="25">
+        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>55.029296875</v>
       </c>
-      <c r="L55" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="L58" s="25">
+        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>58.69140625</v>
       </c>
-      <c r="M55" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="M58" s="25">
+        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>68.017578125</v>
       </c>
-      <c r="N55" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="N58" s="25">
+        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>78.3203125</v>
       </c>
-    </row>
-    <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
@@ -3720,12 +5431,656 @@
       <c r="G74" s="5"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B93" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="25">
+        <f>[1]!MF_qliq_choke_sm3day(fw_,d_choke,B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>166.45058941100763</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C94" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B95" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="27">
+        <f>C95+$C$93/19</f>
+        <v>8.7605573374214547</v>
+      </c>
+      <c r="E95" s="27">
+        <f t="shared" ref="E95:V95" si="0">D95+$C$93/19</f>
+        <v>17.521114674842909</v>
+      </c>
+      <c r="F95" s="27">
+        <f t="shared" si="0"/>
+        <v>26.281672012264366</v>
+      </c>
+      <c r="G95" s="27">
+        <f t="shared" si="0"/>
+        <v>35.042229349685819</v>
+      </c>
+      <c r="H95" s="27">
+        <f t="shared" si="0"/>
+        <v>43.802786687107272</v>
+      </c>
+      <c r="I95" s="27">
+        <f t="shared" si="0"/>
+        <v>52.563344024528725</v>
+      </c>
+      <c r="J95" s="27">
+        <f t="shared" si="0"/>
+        <v>61.323901361950178</v>
+      </c>
+      <c r="K95" s="27">
+        <f t="shared" si="0"/>
+        <v>70.084458699371638</v>
+      </c>
+      <c r="L95" s="27">
+        <f t="shared" si="0"/>
+        <v>78.845016036793098</v>
+      </c>
+      <c r="M95" s="27">
+        <f t="shared" si="0"/>
+        <v>87.605573374214558</v>
+      </c>
+      <c r="N95" s="27">
+        <f t="shared" si="0"/>
+        <v>96.366130711636018</v>
+      </c>
+      <c r="O95" s="27">
+        <f t="shared" si="0"/>
+        <v>105.12668804905748</v>
+      </c>
+      <c r="P95" s="27">
+        <f t="shared" si="0"/>
+        <v>113.88724538647894</v>
+      </c>
+      <c r="Q95" s="27">
+        <f t="shared" si="0"/>
+        <v>122.6478027239004</v>
+      </c>
+      <c r="R95" s="27">
+        <f t="shared" si="0"/>
+        <v>131.40836006132184</v>
+      </c>
+      <c r="S95" s="27">
+        <f t="shared" si="0"/>
+        <v>140.1689173987433</v>
+      </c>
+      <c r="T95" s="27">
+        <f t="shared" si="0"/>
+        <v>148.92947473616476</v>
+      </c>
+      <c r="U95" s="27">
+        <f t="shared" si="0"/>
+        <v>157.69003207358622</v>
+      </c>
+      <c r="V95" s="27">
+        <f t="shared" si="0"/>
+        <v>166.45058941100768</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B96" s="2">
+        <v>10</v>
+      </c>
+      <c r="C96" s="25">
+        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10</v>
+      </c>
+      <c r="D96" s="25">
+        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>9.920654296875</v>
+      </c>
+      <c r="E96" s="25">
+        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>9.6728515625</v>
+      </c>
+      <c r="F96" s="25">
+        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>9.2138671875</v>
+      </c>
+      <c r="G96" s="25">
+        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>8.41796875</v>
+      </c>
+      <c r="H96" s="25">
+        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>5.625</v>
+      </c>
+      <c r="I96" s="25">
+        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="J96" s="25">
+        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="K96" s="25">
+        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="L96" s="25">
+        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="M96" s="25">
+        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="N96" s="25">
+        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="O96" s="25">
+        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="P96" s="25">
+        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q96" s="25">
+        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="R96" s="25">
+        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="S96" s="25">
+        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="T96" s="25">
+        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="U96" s="25">
+        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="V96" s="25">
+        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B97" s="2">
+        <v>15</v>
+      </c>
+      <c r="C97" s="25">
+        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>15</v>
+      </c>
+      <c r="D97" s="25">
+        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.946670532226563</v>
+      </c>
+      <c r="E97" s="25">
+        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.783935546875</v>
+      </c>
+      <c r="F97" s="25">
+        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.501953125</v>
+      </c>
+      <c r="G97" s="25">
+        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.080810546875</v>
+      </c>
+      <c r="H97" s="25">
+        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>13.48388671875</v>
+      </c>
+      <c r="I97" s="25">
+        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>12.626953125</v>
+      </c>
+      <c r="J97" s="25">
+        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.25</v>
+      </c>
+      <c r="K97" s="25">
+        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="L97" s="25">
+        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="M97" s="25">
+        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="N97" s="25">
+        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="O97" s="25">
+        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="P97" s="25">
+        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q97" s="25">
+        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="R97" s="25">
+        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="S97" s="25">
+        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="T97" s="25">
+        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="U97" s="25">
+        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="V97" s="25">
+        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B98" s="2">
+        <v>20</v>
+      </c>
+      <c r="C98" s="25">
+        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20</v>
+      </c>
+      <c r="D98" s="25">
+        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.95941162109375</v>
+      </c>
+      <c r="E98" s="25">
+        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.83642578125</v>
+      </c>
+      <c r="F98" s="25">
+        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.627685546875</v>
+      </c>
+      <c r="G98" s="25">
+        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.326171875</v>
+      </c>
+      <c r="H98" s="25">
+        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>18.9208984375</v>
+      </c>
+      <c r="I98" s="25">
+        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>18.3984375</v>
+      </c>
+      <c r="J98" s="25">
+        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>17.724609375</v>
+      </c>
+      <c r="K98" s="25">
+        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>16.8359375</v>
+      </c>
+      <c r="L98" s="25">
+        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>15.625</v>
+      </c>
+      <c r="M98" s="25">
+        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>13.515625</v>
+      </c>
+      <c r="N98" s="25">
+        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="O98" s="25">
+        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="P98" s="25">
+        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q98" s="25">
+        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="R98" s="25">
+        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="S98" s="25">
+        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="T98" s="25">
+        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="U98" s="25">
+        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="V98" s="25">
+        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B99" s="2">
+        <v>25</v>
+      </c>
+      <c r="C99" s="25">
+        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25</v>
+      </c>
+      <c r="D99" s="25">
+        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.967098236083984</v>
+      </c>
+      <c r="E99" s="25">
+        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.868011474609375</v>
+      </c>
+      <c r="F99" s="25">
+        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.700927734375</v>
+      </c>
+      <c r="G99" s="25">
+        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.462890625</v>
+      </c>
+      <c r="H99" s="25">
+        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.1485595703125</v>
+      </c>
+      <c r="I99" s="25">
+        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>23.7548828125</v>
+      </c>
+      <c r="J99" s="25">
+        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>23.2666015625</v>
+      </c>
+      <c r="K99" s="25">
+        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>22.66845703125</v>
+      </c>
+      <c r="L99" s="25">
+        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>21.9482421875</v>
+      </c>
+      <c r="M99" s="25">
+        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>21.0693359375</v>
+      </c>
+      <c r="N99" s="25">
+        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.921875</v>
+      </c>
+      <c r="O99" s="25">
+        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>18.3837890625</v>
+      </c>
+      <c r="P99" s="25">
+        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>15.33203125</v>
+      </c>
+      <c r="Q99" s="25">
+        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="R99" s="25">
+        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="S99" s="25">
+        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="T99" s="25">
+        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="U99" s="25">
+        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="V99" s="25">
+        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B100" s="2">
+        <v>30</v>
+      </c>
+      <c r="C100" s="25">
+        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30</v>
+      </c>
+      <c r="D100" s="25">
+        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.972190856933594</v>
+      </c>
+      <c r="E100" s="25">
+        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.8883056640625</v>
+      </c>
+      <c r="F100" s="25">
+        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.747314453125</v>
+      </c>
+      <c r="G100" s="25">
+        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.549560546875</v>
+      </c>
+      <c r="H100" s="25">
+        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.28955078125</v>
+      </c>
+      <c r="I100" s="25">
+        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>28.96728515625</v>
+      </c>
+      <c r="J100" s="25">
+        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>28.57177734375</v>
+      </c>
+      <c r="K100" s="25">
+        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>28.1103515625</v>
+      </c>
+      <c r="L100" s="25">
+        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>27.56103515625</v>
+      </c>
+      <c r="M100" s="25">
+        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>26.923828125</v>
+      </c>
+      <c r="N100" s="25">
+        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>26.162109375</v>
+      </c>
+      <c r="O100" s="25">
+        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.283203125</v>
+      </c>
+      <c r="P100" s="25">
+        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.19921875</v>
+      </c>
+      <c r="Q100" s="25">
+        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>22.8515625</v>
+      </c>
+      <c r="R100" s="25">
+        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>21.03515625</v>
+      </c>
+      <c r="S100" s="25">
+        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="T100" s="25">
+        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="U100" s="25">
+        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="V100" s="25">
+        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B101" s="2">
+        <v>35</v>
+      </c>
+      <c r="C101" s="25">
+        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>35</v>
+      </c>
+      <c r="D101" s="25">
+        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.975833892822266</v>
+      </c>
+      <c r="E101" s="25">
+        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.903068542480469</v>
+      </c>
+      <c r="F101" s="25">
+        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.781036376953125</v>
+      </c>
+      <c r="G101" s="25">
+        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.60906982421875</v>
+      </c>
+      <c r="H101" s="25">
+        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.38690185546875</v>
+      </c>
+      <c r="I101" s="25">
+        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.111328125</v>
+      </c>
+      <c r="J101" s="25">
+        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>33.778076171875</v>
+      </c>
+      <c r="K101" s="25">
+        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>33.3892822265625</v>
+      </c>
+      <c r="L101" s="25">
+        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>32.940673828125</v>
+      </c>
+      <c r="M101" s="25">
+        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>32.41943359375</v>
+      </c>
+      <c r="N101" s="25">
+        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.8212890625</v>
+      </c>
+      <c r="O101" s="25">
+        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.15478515625</v>
+      </c>
+      <c r="P101" s="25">
+        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.3857421875</v>
+      </c>
+      <c r="Q101" s="25">
+        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.4970703125</v>
+      </c>
+      <c r="R101" s="25">
+        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>28.4716796875</v>
+      </c>
+      <c r="S101" s="25">
+        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>27.275390625</v>
+      </c>
+      <c r="T101" s="25">
+        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.771484375</v>
+      </c>
+      <c r="U101" s="25">
+        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>23.7890625</v>
+      </c>
+      <c r="V101" s="25">
+        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C48:N48"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I29:J29"/>
+  <mergeCells count="4">
+    <mergeCell ref="C51:N51"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C94:N94"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excercises/excercises 2/ex030.choke.xlsx
+++ b/excercises/excercises 2/ex030.choke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35C49E0-D1AB-4361-994C-E0BB114A02F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A7492-7048-49DC-8C62-50D9750BA48B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="25580" windowHeight="14380" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choke" sheetId="118" r:id="rId1"/>
@@ -741,6 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,7 +754,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4319,29 +4319,29 @@
   </sheetPr>
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="32" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="12" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="32" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4353,17 +4353,17 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
         <v>34</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
         <v>38</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -4521,13 +4521,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
         <v>41</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
@@ -4549,14 +4549,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>13</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>14</v>
       </c>
@@ -4578,10 +4578,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
@@ -4609,7 +4609,7 @@
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>43</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>44</v>
       </c>
@@ -4665,15 +4665,15 @@
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>8</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
         <v>22</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
         <v>24</v>
       </c>
@@ -4715,10 +4715,10 @@
       <c r="G32" s="23">
         <v>1</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="33"/>
+      <c r="J32" s="34"/>
       <c r="K32" s="7">
         <f t="array" ref="K32:M33">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>0.26104736328125</v>
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C33" s="23" t="str">
         <v>Pout, atma</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>c_calibr_fr</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>25</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="26" t="s">
         <v>26</v>
       </c>
@@ -4787,10 +4787,10 @@
       <c r="G36" s="23">
         <v>1</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="31"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="7">
         <f t="array" ref="K36:M37">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>1.396484375</v>
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C37" s="23" t="str">
         <v>Pin, atma</v>
       </c>
@@ -4828,13 +4828,13 @@
         <v>c_calibr_fr</v>
       </c>
     </row>
-    <row r="38" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="7">
         <f t="array" ref="C40:G41">[1]!MF_calibr_choke_fr(Qliq_,fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,PVTstr_)</f>
         <v>0.20889911495164873</v>
@@ -4852,7 +4852,7 @@
         <v>0.20889911495164873</v>
       </c>
     </row>
-    <row r="41" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" s="25" t="str">
         <v>c_calibr_fr</v>
       </c>
@@ -4869,13 +4869,13 @@
         <v>c_calibr_fr</v>
       </c>
     </row>
-    <row r="42" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C44" s="24">
         <f t="array" ref="C44:G45">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,C40,PVTstr_)</f>
         <v>24.999999999999996</v>
@@ -4893,7 +4893,7 @@
         <v>0.20889911495164873</v>
       </c>
     </row>
-    <row r="45" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C45" s="24" t="str">
         <v>Qliq</v>
       </c>
@@ -4910,36 +4910,36 @@
         <v>c_calibr_fr</v>
       </c>
     </row>
-    <row r="46" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="31" t="s">
+    <row r="51" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-    </row>
-    <row r="52" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+    </row>
+    <row r="52" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
         <v>16</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>2</v>
       </c>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>10</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>20</v>
       </c>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>30</v>
       </c>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>40</v>
       </c>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>50</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>78.3203125</v>
       </c>
     </row>
-    <row r="59" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
@@ -5311,7 +5311,7 @@
       <c r="G59" s="5"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
@@ -5319,7 +5319,7 @@
       <c r="G60" s="5"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
@@ -5327,7 +5327,7 @@
       <c r="G61" s="5"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
@@ -5335,7 +5335,7 @@
       <c r="G62" s="5"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
@@ -5343,7 +5343,7 @@
       <c r="G63" s="5"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
@@ -5351,7 +5351,7 @@
       <c r="G64" s="5"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
@@ -5359,7 +5359,7 @@
       <c r="G65" s="5"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
@@ -5367,7 +5367,7 @@
       <c r="G66" s="5"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
@@ -5375,7 +5375,7 @@
       <c r="G67" s="5"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
@@ -5383,7 +5383,7 @@
       <c r="G68" s="5"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
@@ -5391,7 +5391,7 @@
       <c r="G69" s="5"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
@@ -5399,7 +5399,7 @@
       <c r="G70" s="5"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
@@ -5407,7 +5407,7 @@
       <c r="G71" s="5"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="4"/>
@@ -5415,7 +5415,7 @@
       <c r="G72" s="5"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
@@ -5423,7 +5423,7 @@
       <c r="G73" s="5"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
@@ -5431,7 +5431,7 @@
       <c r="G74" s="5"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
@@ -5439,7 +5439,7 @@
       <c r="G75" s="5"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
@@ -5447,7 +5447,7 @@
       <c r="G76" s="5"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
@@ -5455,9 +5455,9 @@
       <c r="G77" s="5"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B93" s="35" t="s">
+    <row r="78" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B93" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="25">
@@ -5465,23 +5465,23 @@
         <v>166.45058941100763</v>
       </c>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C94" s="34" t="s">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C94" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="31"/>
-      <c r="N94" s="31"/>
-    </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="30" t="s">
         <v>46</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>166.45058941100768</v>
       </c>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>10</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>15</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>20</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>25</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>30</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>35</v>
       </c>
